--- a/Assets/TestResults/ThreadedInitialLoadTime.xlsx
+++ b/Assets/TestResults/ThreadedInitialLoadTime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b012521i\Documents\GitHub\Procedural-Voxel-Terrain\Assets\TestResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Procedural-Voxel-Terrain\Assets\TestResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9000954-B675-4F1F-8763-043F20A74BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6FBDB7-B9C3-406C-B98F-0FF14F7BCB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ThreadedInitialLoadTime" sheetId="1" r:id="rId1"/>
@@ -599,9 +599,1242 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of Elapsed Time(ms) in Ascending Order</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ThreadedInitialLoadTime!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ElapsedTime(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>ThreadedInitialLoadTime!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>19599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21533</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21538</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21590</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21664</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21867</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21891</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21892</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21906</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21920</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21932</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21937</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21944</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21945</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21946</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21947</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21948</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21949</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21950</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21956</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21964</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21965</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21971</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21972</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21976</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21977</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21978</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21979</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21981</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21983</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21988</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21988</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21989</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21989</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21989</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21990</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21992</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22013</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>22014</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22015</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22015</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>22016</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22019</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22019</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22019</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>22023</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>22027</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>22028</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22031</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22032</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22036</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22038</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22039</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>22041</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22044</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22048</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22049</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>22051</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>22056</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>22062</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>22062</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>22063</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22064</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22075</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>22081</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>22093</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>22093</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22096</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22115</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22117</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>22128</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>22147</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22150</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>22158</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>22160</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22165</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22172</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22192</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22193</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>22200</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>22207</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>22221</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>22246</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>22249</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>22297</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>22306</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>22384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D2C-4B33-B1CC-13C03DBFD104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="323883983"/>
+        <c:axId val="323884399"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="323883983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323884399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="323884399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Elapsed Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323883983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{307B6AF7-3F33-4880-A6E0-BCC2BD0CA28B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B101" totalsRowShown="0">
   <autoFilter ref="A1:B101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
+    <sortCondition ref="B1:B101"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Seed"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ElapsedTime(ms)"/>
@@ -910,7 +2143,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D7"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,10 +2206,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="B5">
-        <v>21848</v>
+        <v>21493</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -988,10 +2221,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B6">
-        <v>21917</v>
+        <v>21502</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1003,10 +2236,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>21999</v>
+        <v>21533</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1018,178 +2251,178 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B8">
-        <v>21533</v>
+        <v>21538</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>22200</v>
+        <v>21590</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>21946</v>
+        <v>21605</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B11">
-        <v>21867</v>
+        <v>21664</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>22062</v>
+        <v>21761</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>21956</v>
+        <v>21848</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>22007</v>
+        <v>21867</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>22062</v>
+        <v>21891</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B16">
-        <v>22192</v>
+        <v>21892</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B17">
-        <v>21932</v>
+        <v>21906</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>21989</v>
+        <v>21917</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B19">
-        <v>22063</v>
+        <v>21920</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>22044</v>
+        <v>21932</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B21">
-        <v>21978</v>
+        <v>21937</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B22">
-        <v>22001</v>
+        <v>21944</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B23">
-        <v>21976</v>
+        <v>21945</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>21590</v>
+        <v>21946</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B25">
-        <v>21948</v>
+        <v>21947</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>22297</v>
+        <v>21948</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B27">
-        <v>22207</v>
+        <v>21949</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B28">
-        <v>22160</v>
+        <v>21950</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>22027</v>
+        <v>21956</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1202,82 +2435,82 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B31">
-        <v>22056</v>
+        <v>21965</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="B32">
-        <v>22147</v>
+        <v>21971</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="B33">
-        <v>22032</v>
+        <v>21972</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>22028</v>
+        <v>21976</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B35">
-        <v>22041</v>
+        <v>21976</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="B36">
-        <v>22036</v>
+        <v>21977</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B37">
-        <v>22172</v>
+        <v>21978</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B38">
-        <v>22249</v>
+        <v>21979</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>21761</v>
+        <v>21981</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B40">
-        <v>22031</v>
+        <v>21983</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1298,7 +2531,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>21989</v>
@@ -1306,472 +2539,473 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>21965</v>
+        <v>21989</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B45">
-        <v>22081</v>
+        <v>21989</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B46">
-        <v>21981</v>
+        <v>21990</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B47">
-        <v>22150</v>
+        <v>21992</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B48">
-        <v>22221</v>
+        <v>21996</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>21945</v>
+        <v>21999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>22096</v>
+        <v>22001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>21605</v>
+        <v>22007</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B52">
-        <v>22165</v>
+        <v>22013</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B53">
-        <v>22039</v>
+        <v>22014</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B54">
-        <v>22016</v>
+        <v>22015</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B55">
-        <v>21920</v>
+        <v>22015</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56">
-        <v>21979</v>
+        <v>22016</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B57">
-        <v>21937</v>
+        <v>22019</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B58">
-        <v>21891</v>
+        <v>22019</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B59">
-        <v>22193</v>
+        <v>22019</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>21990</v>
+        <v>22023</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B61">
-        <v>21502</v>
+        <v>22027</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B62">
-        <v>22075</v>
+        <v>22028</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="B63">
-        <v>21892</v>
+        <v>22031</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B64">
-        <v>22064</v>
+        <v>22032</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B65">
-        <v>21906</v>
+        <v>22036</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B66">
-        <v>22384</v>
+        <v>22038</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B67">
-        <v>22306</v>
+        <v>22039</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B68">
-        <v>21947</v>
+        <v>22041</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B69">
-        <v>22019</v>
+        <v>22044</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B70">
-        <v>22023</v>
+        <v>22048</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B71">
-        <v>21944</v>
+        <v>22049</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>21950</v>
+        <v>22051</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B73">
-        <v>21538</v>
+        <v>22056</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B74">
-        <v>21983</v>
+        <v>22062</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B75">
-        <v>21971</v>
+        <v>22062</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B76">
-        <v>22013</v>
+        <v>22063</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B77">
-        <v>21949</v>
+        <v>22064</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B78">
-        <v>22019</v>
+        <v>22075</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B79">
-        <v>21493</v>
+        <v>22081</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>21977</v>
+        <v>22093</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>22051</v>
+        <v>22093</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B82">
-        <v>21989</v>
+        <v>22096</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B83">
-        <v>22015</v>
+        <v>22115</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B84">
-        <v>22049</v>
+        <v>22117</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B85">
-        <v>21992</v>
+        <v>22128</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B86">
-        <v>22115</v>
+        <v>22147</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B87">
-        <v>21996</v>
+        <v>22150</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B88">
-        <v>22014</v>
+        <v>22158</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B89">
-        <v>22093</v>
+        <v>22160</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B90">
-        <v>21972</v>
+        <v>22165</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="B91">
-        <v>22015</v>
+        <v>22172</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="B92">
-        <v>22093</v>
+        <v>22192</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B93">
-        <v>22019</v>
+        <v>22193</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B94">
-        <v>21664</v>
+        <v>22200</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B95">
-        <v>21976</v>
+        <v>22207</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B96">
-        <v>22246</v>
+        <v>22221</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>22038</v>
+        <v>22246</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B98">
-        <v>22117</v>
+        <v>22249</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="B99">
-        <v>22128</v>
+        <v>22297</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B100">
-        <v>22158</v>
+        <v>22306</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B101">
-        <v>22048</v>
+        <v>22384</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>